--- a/data/trans_dic/P25A$medico-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Provincia-trans_dic.xlsx
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1487986819449933</v>
+        <v>0.158037168929573</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06008880148866597</v>
+        <v>0.06401874832725774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01264799385013227</v>
+        <v>0.01015016615885433</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1020710887686647</v>
+        <v>0.1078617363752214</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05543616447253098</v>
+        <v>0.05645129408625908</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01443140823517509</v>
+        <v>0.01532554156418918</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.399839250546992</v>
+        <v>0.4059807156651814</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2150091313089243</v>
+        <v>0.2017068696997202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1130691064233122</v>
+        <v>0.1129250297433362</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.1670008929565414</v>
+        <v>0.1501101303607604</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1203421661626447</v>
+        <v>0.1278006912887829</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2867129077733321</v>
+        <v>0.2978425181412689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1674338893733636</v>
+        <v>0.1687610376861139</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08834034002634761</v>
+        <v>0.08410145060891372</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2125875490313688</v>
+        <v>0.2154673480103947</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1382390128544944</v>
+        <v>0.1442266553404449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.143837959321174</v>
+        <v>0.1457321298189307</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01618303181202782</v>
+        <v>0.01378439888890034</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1884208018344249</v>
+        <v>0.1816759824767906</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1089521732610254</v>
+        <v>0.1065077444283771</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1218501643280741</v>
+        <v>0.1207951883421561</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3826771401189379</v>
+        <v>0.3865800018816481</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3009538076410751</v>
+        <v>0.2992463082812007</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3575228035066882</v>
+        <v>0.3510862827533287</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2363794739567785</v>
+        <v>0.2580973407147889</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1621726779565835</v>
+        <v>0.1468398957924746</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2102032215213769</v>
+        <v>0.2187228383204597</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.33226133548381</v>
+        <v>0.3327701547311052</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2191202887553519</v>
+        <v>0.2176262681830767</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2794605263178958</v>
+        <v>0.2807931849921461</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07199242637904434</v>
+        <v>0.07455003825248339</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1711636079925226</v>
+        <v>0.1741527350432988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1023929597226562</v>
+        <v>0.1046534363170313</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02603305182343517</v>
+        <v>0.02779817832607477</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08154278862812873</v>
+        <v>0.0827190104293824</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1423597487076765</v>
+        <v>0.1411355876907045</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07580455071004479</v>
+        <v>0.08068647491462398</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2567166089074207</v>
+        <v>0.2575507989945411</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3612455430150454</v>
+        <v>0.3588947065561924</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2883998139268686</v>
+        <v>0.2867693094120277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4081997913923399</v>
+        <v>0.3969385001228057</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2202212189419277</v>
+        <v>0.2500858663949854</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1569462296431436</v>
+        <v>0.1474551740770362</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2321248187413015</v>
+        <v>0.2353681809557719</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2908737933392483</v>
+        <v>0.2890006881121823</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2084836191164526</v>
+        <v>0.2202808011887119</v>
       </c>
     </row>
     <row r="13">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1487756316445597</v>
+        <v>0.1526479086064057</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04000442202511358</v>
+        <v>0.03915467822416682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05751225521400182</v>
+        <v>0.05523481643140427</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1069392803522905</v>
+        <v>0.1084733960188733</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02873342105653674</v>
+        <v>0.02849449449540997</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04243106415357892</v>
+        <v>0.04205764483381129</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3355819042984378</v>
+        <v>0.3419065534544425</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1511939063073008</v>
+        <v>0.1430482073723474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1875255403155244</v>
+        <v>0.1857184588200903</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1369030892206259</v>
+        <v>0.128159022564328</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08724195406698319</v>
+        <v>0.1077981033414966</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1126463573054659</v>
+        <v>0.09709622687457696</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2435415118100921</v>
+        <v>0.242440270751242</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1114554056669979</v>
+        <v>0.1128135286065273</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1372001337736322</v>
+        <v>0.1346429694939361</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08085723820266745</v>
+        <v>0.07923177293858338</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02016338991268361</v>
+        <v>0.02017253411264832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02722442859236517</v>
+        <v>0.02645482308279663</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03427569839432057</v>
+        <v>0.03491731153386587</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06901529897435719</v>
+        <v>0.06238418966448179</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03966289918470706</v>
+        <v>0.04092518203767214</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0384894851364726</v>
+        <v>0.03693482206021503</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3096089815935729</v>
+        <v>0.2937770966991129</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2341471998384778</v>
+        <v>0.2508248928333305</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2870324620681134</v>
+        <v>0.2911260484140889</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2372989372018421</v>
+        <v>0.2203650337235386</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.27156694725644</v>
+        <v>0.30567677785715</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3410138211073926</v>
+        <v>0.38698347535252</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2204790470140222</v>
+        <v>0.2203361259069021</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.209630463412799</v>
+        <v>0.2223310150894413</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2426877101594292</v>
+        <v>0.2221249971912609</v>
       </c>
     </row>
     <row r="19">
@@ -1216,29 +1216,29 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1848859823419891</v>
+        <v>0.1757257976799206</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1323422275372336</v>
+        <v>0.1345246271524834</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07643100742635976</v>
+        <v>0.07811171223850523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05405862153808778</v>
+        <v>0.054131317091398</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.1562162821828402</v>
+        <v>0.1681134980971705</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1098984360181114</v>
+        <v>0.1083967007726482</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05630622606909286</v>
+        <v>0.05672926044245253</v>
       </c>
     </row>
     <row r="21">
@@ -1249,29 +1249,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4294428548961833</v>
+        <v>0.4206074309558103</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.309674527346129</v>
+        <v>0.3123158637890656</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2740905706804415</v>
+        <v>0.2962622885194237</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.405931018348732</v>
+        <v>0.4097447697461829</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1877298349187092</v>
+        <v>0.1972909185964886</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.3594440587556892</v>
+        <v>0.3650544612935564</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2570723429648473</v>
+        <v>0.2633463073120742</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2160196339207067</v>
+        <v>0.2065478827900759</v>
       </c>
     </row>
     <row r="22">
@@ -1321,31 +1321,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1693191162346616</v>
+        <v>0.1632353227802928</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1881113509402687</v>
+        <v>0.1923101945845694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2959953855976811</v>
+        <v>0.2930050634030485</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07283746826989501</v>
+        <v>0.07477115633059715</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1225013168011251</v>
+        <v>0.122354764343727</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1362442269664799</v>
+        <v>0.1414023130090826</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1658529441513666</v>
+        <v>0.1637935298303247</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2401432409189689</v>
+        <v>0.24732271479518</v>
       </c>
     </row>
     <row r="24">
@@ -1356,31 +1356,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3464140408087136</v>
+        <v>0.3362178003898434</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3270830596343363</v>
+        <v>0.3297675722356097</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4856668512699983</v>
+        <v>0.4792020724802244</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2354193862895569</v>
+        <v>0.2373991159252621</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2395467706933061</v>
+        <v>0.2302366357234716</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3094490796048494</v>
+        <v>0.2926961355225349</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2723775625486167</v>
+        <v>0.2785536285651354</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2703414260840707</v>
+        <v>0.2691267064118171</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3773480311218622</v>
+        <v>0.3789021171860685</v>
       </c>
     </row>
     <row r="25">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2978454943962632</v>
+        <v>0.2987654775078839</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1736584321302981</v>
+        <v>0.1618737757000857</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0905338616355216</v>
+        <v>0.09363048540123285</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05427013992392514</v>
+        <v>0.05575577848713777</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04844516248352587</v>
+        <v>0.06237913856047434</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03390367088598126</v>
+        <v>0.01805336908471902</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2282758352306843</v>
+        <v>0.2238081755502454</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.144936380399495</v>
+        <v>0.150495188720519</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0824986725471409</v>
+        <v>0.08100065246711512</v>
       </c>
     </row>
     <row r="27">
@@ -1465,31 +1465,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4631325112371981</v>
+        <v>0.4479188263807072</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3333889035845087</v>
+        <v>0.3375710524172479</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2309432400751518</v>
+        <v>0.2419684946152802</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2082996889291291</v>
+        <v>0.2086145957579632</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.211352888436865</v>
+        <v>0.2341585411915401</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1811387885875549</v>
+        <v>0.1766682275962754</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3531207999706337</v>
+        <v>0.3516819348746282</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2728314583839086</v>
+        <v>0.2747579771827796</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1892956560056035</v>
+        <v>0.1938965531453079</v>
       </c>
     </row>
     <row r="28">
@@ -1539,31 +1539,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2378911544092303</v>
+        <v>0.2383141626000216</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1582155950777892</v>
+        <v>0.162979913051466</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06436110133810984</v>
+        <v>0.06089297614524579</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05947625936361996</v>
+        <v>0.06274948302073621</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1902942164948042</v>
+        <v>0.1893999692709256</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1421190670827721</v>
+        <v>0.1405724320074752</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1346623145714921</v>
+        <v>0.1342973433690434</v>
       </c>
     </row>
     <row r="30">
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3063928020560311</v>
+        <v>0.3091056365479292</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2240605516341286</v>
+        <v>0.2286424064488473</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1247166640613382</v>
+        <v>0.1213098942398595</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1200474229790627</v>
+        <v>0.1256099926049707</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2453429966235182</v>
+        <v>0.2465853388569809</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1859513318472903</v>
+        <v>0.1863612369592128</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1807896401604084</v>
+        <v>0.1838751697613233</v>
       </c>
     </row>
     <row r="31">
@@ -1831,13 +1831,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6912</v>
+        <v>7341</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4873</v>
+        <v>5192</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>999</v>
+        <v>801</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6790</v>
+        <v>7175</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6715</v>
+        <v>6838</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1890</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="7">
@@ -1864,29 +1864,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18572</v>
+        <v>18857</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17437</v>
+        <v>16359</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8928</v>
+        <v>8917</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>6686</v>
+        <v>6009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6256</v>
+        <v>6643</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19073</v>
+        <v>19813</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20282</v>
+        <v>20443</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11567</v>
+        <v>11012</v>
       </c>
     </row>
     <row r="8">
@@ -1971,31 +1971,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24203</v>
+        <v>24531</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16719</v>
+        <v>17443</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10404</v>
+        <v>10541</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>968</v>
+        <v>824</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>26323</v>
+        <v>25380</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19694</v>
+        <v>19252</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12382</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="11">
@@ -2006,31 +2006,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>43567</v>
+        <v>44011</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36398</v>
+        <v>36192</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25859</v>
+        <v>25393</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6111</v>
+        <v>6673</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9700</v>
+        <v>8783</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6157</v>
+        <v>6407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>46418</v>
+        <v>46489</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>39607</v>
+        <v>39337</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28399</v>
+        <v>28534</v>
       </c>
     </row>
     <row r="12">
@@ -2115,31 +2115,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4589</v>
+        <v>4752</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14087</v>
+        <v>14333</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6349</v>
+        <v>6489</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>853</v>
+        <v>911</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6358</v>
+        <v>6450</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16383</v>
+        <v>16242</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6793</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="15">
@@ -2150,31 +2150,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16363</v>
+        <v>16416</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29731</v>
+        <v>29538</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17883</v>
+        <v>17782</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5811</v>
+        <v>5651</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7219</v>
+        <v>8198</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4333</v>
+        <v>4071</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18100</v>
+        <v>18353</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33474</v>
+        <v>33259</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18683</v>
+        <v>19740</v>
       </c>
     </row>
     <row r="16">
@@ -2259,13 +2259,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11289</v>
+        <v>11583</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4218</v>
+        <v>4128</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5009</v>
+        <v>4811</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -2277,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12144</v>
+        <v>12318</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4365</v>
+        <v>4329</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5591</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="19">
@@ -2294,31 +2294,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25464</v>
+        <v>25944</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15941</v>
+        <v>15083</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16332</v>
+        <v>16175</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5159</v>
+        <v>4829</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4056</v>
+        <v>5012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5031</v>
+        <v>4337</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27657</v>
+        <v>27532</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16933</v>
+        <v>17140</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18077</v>
+        <v>17740</v>
       </c>
     </row>
     <row r="20">
@@ -2403,31 +2403,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3324</v>
+        <v>3257</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>1017</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>864</v>
+        <v>839</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4841</v>
+        <v>4376</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3065</v>
+        <v>3162</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1879</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="23">
@@ -2438,31 +2438,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12728</v>
+        <v>12077</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11806</v>
+        <v>12647</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9106</v>
+        <v>9236</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6888</v>
+        <v>6397</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7292</v>
+        <v>8208</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5826</v>
+        <v>6612</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>15464</v>
+        <v>15454</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>16199</v>
+        <v>17181</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11846</v>
+        <v>10842</v>
       </c>
     </row>
     <row r="24">
@@ -2547,29 +2547,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9775</v>
+        <v>9291</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>10999</v>
+        <v>11181</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3392</v>
+        <v>3466</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>11198</v>
+        <v>12051</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>11535</v>
+        <v>11377</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3444</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="27">
@@ -2580,29 +2580,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22705</v>
+        <v>22238</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>25738</v>
+        <v>25957</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12162</v>
+        <v>13146</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7636</v>
+        <v>7708</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4102</v>
+        <v>4311</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>25766</v>
+        <v>26168</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>26983</v>
+        <v>27641</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>13215</v>
+        <v>12635</v>
       </c>
     </row>
     <row r="28">
@@ -2687,31 +2687,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>15604</v>
+        <v>15044</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>30574</v>
+        <v>31256</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>37564</v>
+        <v>37185</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6688</v>
+        <v>6865</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>10344</v>
+        <v>10331</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17035</v>
+        <v>17680</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>42184</v>
+        <v>41660</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>50753</v>
+        <v>52271</v>
       </c>
     </row>
     <row r="31">
@@ -2722,31 +2722,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>31926</v>
+        <v>30986</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>53160</v>
+        <v>53597</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>61635</v>
+        <v>60815</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>7738</v>
+        <v>7803</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>21995</v>
+        <v>21140</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>26129</v>
+        <v>24714</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>34055</v>
+        <v>34828</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>68761</v>
+        <v>68452</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>79751</v>
+        <v>80079</v>
       </c>
     </row>
     <row r="32">
@@ -2831,31 +2831,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>41255</v>
+        <v>41383</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>22615</v>
+        <v>21080</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>9243</v>
+        <v>9560</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3917</v>
+        <v>4025</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3242</v>
+        <v>4175</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2168</v>
+        <v>1154</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>48096</v>
+        <v>47155</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>28575</v>
+        <v>29671</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>13698</v>
+        <v>13450</v>
       </c>
     </row>
     <row r="35">
@@ -2866,31 +2866,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>64149</v>
+        <v>62042</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>43416</v>
+        <v>43961</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>23579</v>
+        <v>24705</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>15035</v>
+        <v>15058</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14145</v>
+        <v>15672</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>11583</v>
+        <v>11297</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>74400</v>
+        <v>74097</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>53790</v>
+        <v>54169</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>31431</v>
+        <v>32195</v>
       </c>
     </row>
     <row r="36">
@@ -2975,31 +2975,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>148579</v>
+        <v>148843</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>95799</v>
+        <v>98684</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>24880</v>
+        <v>23539</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>19973</v>
+        <v>21072</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>166565</v>
+        <v>165782</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>170918</v>
+        <v>169057</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>126758</v>
+        <v>126415</v>
       </c>
     </row>
     <row r="39">
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>191363</v>
+        <v>193057</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>135668</v>
+        <v>138442</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>48211</v>
+        <v>46894</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>40313</v>
+        <v>42181</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>214749</v>
+        <v>215837</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>223632</v>
+        <v>224125</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>170178</v>
+        <v>173082</v>
       </c>
     </row>
     <row r="40">
